--- a/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/CSDL-NC_DCT1201 _3120410297_TrầnNguyênLộc/Single-Level.xlsx
+++ b/Nam3_HK1/CSDL_SQL_Plus/Baitap/!TieuLuan/CSDL-NC_DCT1201 _3120410297_TrầnNguyênLộc/Single-Level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\SGU-Course\Nam3_HK1\CSDL_SQL_Plus\Baitap\!TieuLuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F85696-DF80-4B42-B6A7-A12DE0E9D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13EB35A-8DDB-4913-919D-39676AA0BE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{88E02BB5-18DC-4D8D-A50A-9D70CEF122C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Record Size (R)</t>
   </si>
@@ -198,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,9 +207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7EAA01-9FA6-4241-AC58-07A4C2D419DD}">
-  <dimension ref="A29:G44"/>
+  <dimension ref="A29:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,7 +564,7 @@
     <col min="17" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,277 +574,305 @@
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>40</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>40</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4096</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4096</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>40</v>
-      </c>
-      <c r="B30" s="6">
-        <v>4096</v>
-      </c>
-      <c r="C30" s="6">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>9</v>
       </c>
-      <c r="E30" s="6">
+      <c r="B35" s="5">
         <v>600000</v>
       </c>
-      <c r="F30" s="6">
+      <c r="C35" s="5">
         <v>0</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>40</v>
-      </c>
-      <c r="B31" s="7">
-        <v>4096</v>
-      </c>
-      <c r="C31" s="7">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>9</v>
       </c>
-      <c r="E31" s="7">
+      <c r="B36" s="6">
         <v>600000</v>
       </c>
-      <c r="F31" s="7">
+      <c r="C36" s="6">
         <v>500</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>40</v>
-      </c>
-      <c r="B32" s="8">
-        <v>4096</v>
-      </c>
-      <c r="C32" s="8">
-        <v>6</v>
-      </c>
-      <c r="D32" s="8">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>9</v>
       </c>
-      <c r="E32" s="8">
+      <c r="B37" s="7">
         <v>600000</v>
       </c>
-      <c r="F32" s="8">
+      <c r="C37" s="7">
         <v>0</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B52" s="5">
         <f>FLOOR(B30/A30, 1)</f>
         <v>102</v>
       </c>
-      <c r="C37" s="6">
-        <f>CEILING(E30/B37, 1)</f>
+      <c r="C52" s="5">
+        <f>CEILING(B35/B52, 1)</f>
         <v>5883</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" ref="D37:D39" si="0">CEILING(LOG(C37,2), 1)</f>
-        <v>13</v>
-      </c>
-      <c r="E37" s="6">
-        <f>CEILING(C37/2,1)</f>
-        <v>2942</v>
-      </c>
-      <c r="F37" s="6">
-        <f>CEILING(LOG(E42, 2), 1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B53" s="6">
         <f>FLOOR(B31/A31, 1)</f>
         <v>102</v>
       </c>
-      <c r="C38" s="7">
-        <f>CEILING(E31/B38, 1)</f>
+      <c r="C53" s="6">
+        <f>CEILING(B36/B53, 1)</f>
         <v>5883</v>
       </c>
-      <c r="D38" s="7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" ref="E38:E39" si="1">CEILING(C38/2,1)</f>
-        <v>2942</v>
-      </c>
-      <c r="F38" s="7">
-        <f>CEILING(LOG(E43, 2), 1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B54" s="7">
         <f>FLOOR(B32/A32, 1)</f>
         <v>102</v>
       </c>
-      <c r="C39" s="8">
-        <f>CEILING(E32/B39, 1)</f>
+      <c r="C54" s="7">
+        <f>CEILING(B37/B54, 1)</f>
         <v>5883</v>
       </c>
-      <c r="D39" s="8">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="5">
+        <f>A35+C30</f>
+        <v>15</v>
+      </c>
+      <c r="C57" s="5">
+        <f>FLOOR(B30/B57, 1)</f>
+        <v>273</v>
+      </c>
+      <c r="D57" s="5">
+        <f>C52</f>
+        <v>5883</v>
+      </c>
+      <c r="E57" s="5">
+        <f>CEILING(D57/C57, 1)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="6">
+        <f>A36+C31</f>
+        <v>15</v>
+      </c>
+      <c r="C58" s="6">
+        <f>FLOOR(B31/B58, 1)</f>
+        <v>273</v>
+      </c>
+      <c r="D58" s="6">
+        <f>C36</f>
+        <v>500</v>
+      </c>
+      <c r="E58" s="6">
+        <f>CEILING(D58/C58, 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7">
+        <f>A37+C32</f>
+        <v>15</v>
+      </c>
+      <c r="C59" s="7">
+        <f>FLOOR(B32/B59, 1)</f>
+        <v>273</v>
+      </c>
+      <c r="D59" s="7">
+        <f>B37</f>
+        <v>600000</v>
+      </c>
+      <c r="E59" s="7">
+        <f>CEILING(D59/C59, 1)</f>
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="8">
-        <f t="shared" si="1"/>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="5">
+        <f>CEILING(C52/2,1)</f>
         <v>2942</v>
       </c>
-      <c r="F39" s="8">
-        <f>CEILING(LOG(E44, 2), 1)</f>
+      <c r="C62" s="5">
+        <f>CEILING(LOG(C52,2), 1)</f>
+        <v>13</v>
+      </c>
+      <c r="D62" s="5">
+        <f>CEILING(LOG(E57, 2), 1)</f>
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <f>D62 + 1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="6">
+        <f>CEILING(C53/2,1)</f>
+        <v>2942</v>
+      </c>
+      <c r="C63" s="6">
+        <f>CEILING(LOG(C53,2), 1)</f>
+        <v>13</v>
+      </c>
+      <c r="D63" s="6">
+        <f>CEILING(LOG(E58, 2), 1)</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="6">
+        <f>D63 + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="7">
+        <f>CEILING(C54/2,1)</f>
+        <v>2942</v>
+      </c>
+      <c r="C64" s="7">
+        <f>CEILING(LOG(C54,2), 1)</f>
+        <v>13</v>
+      </c>
+      <c r="D64" s="7">
+        <f>CEILING(LOG(E59, 2), 1)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="6">
-        <f>D30+C30</f>
-        <v>15</v>
-      </c>
-      <c r="C42" s="6">
-        <f>FLOOR(B30/B42, 1)</f>
-        <v>273</v>
-      </c>
-      <c r="D42" s="6">
-        <f>C37</f>
-        <v>5883</v>
-      </c>
-      <c r="E42" s="6">
-        <f>CEILING(D42/C42, 1)</f>
-        <v>22</v>
-      </c>
-      <c r="F42" s="6">
-        <f>F37 + 1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="7">
-        <f>D31+C31</f>
-        <v>15</v>
-      </c>
-      <c r="C43" s="7">
-        <f>FLOOR(B31/B43, 1)</f>
-        <v>273</v>
-      </c>
-      <c r="D43" s="7">
-        <f>F31</f>
-        <v>500</v>
-      </c>
-      <c r="E43" s="7">
-        <f>CEILING(D43/C43, 1)</f>
-        <v>2</v>
-      </c>
-      <c r="F43" s="7">
-        <f>F38 + 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="8">
-        <f>D32+C32</f>
-        <v>15</v>
-      </c>
-      <c r="C44" s="8">
-        <f>FLOOR(B32/B44, 1)</f>
-        <v>273</v>
-      </c>
-      <c r="D44" s="8">
-        <f>E32</f>
-        <v>600000</v>
-      </c>
-      <c r="E44" s="8">
-        <f>CEILING(D44/C44, 1)</f>
-        <v>2198</v>
-      </c>
-      <c r="F44" s="8">
-        <f>F39 + 1</f>
+      <c r="E64" s="7">
+        <f>D64 + 1</f>
         <v>13</v>
       </c>
     </row>
